--- a/data/RoutingTrafficSent_SUM_LARP.xlsx
+++ b/data/RoutingTrafficSent_SUM_LARP.xlsx
@@ -558,7 +558,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$B$8</c:f>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -569,36 +569,54 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$B$9:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3495.5444444</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5595.7444444700004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20679.0999997</c:v>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3255.2777778300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3332.0555555000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3434.1666663300002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3546.0555555000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3535.6666666699998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3614.3333331700001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -609,7 +627,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$C$8</c:f>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -620,36 +638,54 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$C$9:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3560.5999999700002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5530.9111111299999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20845.744445100001</c:v>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3434.1666663300002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3546.0555555000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3535.6666666699998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3614.3333331700001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3580.3333333300002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3660.6666668299999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,7 +696,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$D$8</c:f>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -671,36 +707,54 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$D$9:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3612.3777777300002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5964.0222222000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20979.777777399999</c:v>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3535.6666666699998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3614.3333331700001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3580.3333333300002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3660.6666668299999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3672.2777778300001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3649.8888888299998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,7 +765,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$E$8</c:f>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -722,36 +776,54 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$E$9:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3654.1111111</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5857.8777777699997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20942.355555800001</c:v>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3580.3333333300002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3660.6666668299999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3672.2777778300001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3649.8888888299998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3839.4444444999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3799.6111111700002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,7 +834,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$F$8</c:f>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -773,36 +845,54 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$F$9:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3712.9111111299999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6267.2111111000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21149.1222218</c:v>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3672.2777778300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3649.8888888299998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3839.4444444999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3799.6111111700002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3936.8333333300002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3932.4444446699999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,7 +903,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$G$8</c:f>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -824,61 +914,1017 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RoutingTrafficSent_SUM_LARP!$G$9:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3731.3888889300001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6101.0666666300003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21128.066666800001</c:v>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3839.4444444999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3799.6111111700002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3936.8333333300002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3932.4444446699999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3912.7222221699999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3965.9444443299999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="93045504"/>
-        <c:axId val="93047040"/>
+        <c:axId val="48333568"/>
+        <c:axId val="48335104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93045504"/>
+        <c:axId val="48333568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93047040"/>
+        <c:crossAx val="48335104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93047040"/>
+        <c:axId val="48335104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48333568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3255.2777778300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3434.1666663300002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3535.6666666699998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3580.3333333300002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3672.2777778300001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3839.4444444999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3332.0555555000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3546.0555555000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3614.3333331700001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3660.6666668299999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3649.8888888299998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3799.6111111700002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3434.1666663300002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3535.6666666699998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3580.3333333300002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3672.2777778300001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3839.4444444999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3936.8333333300002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.075</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3546.0555555000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3614.3333331700001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3660.6666668299999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3649.8888888299998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3799.6111111700002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3932.4444446699999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3535.6666666699998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3580.3333333300002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3672.2777778300001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3839.4444444999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3936.8333333300002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3912.7222221699999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3614.3333331700001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3660.6666668299999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3649.8888888299998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3799.6111111700002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3932.4444446699999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3965.9444443299999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="83394944"/>
+        <c:axId val="90796800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83394944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90796800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90796800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83394944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4973.0555556700001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5033.3333333299997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5085.0555556700001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5469.2222223299996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5777.6666666700003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5093.6666665000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5085.0555556700001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5469.2222223299996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5777.6666666700003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5093.6666665000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5827.8888886699997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6007.7222223299996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5777.6666666700003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5093.6666665000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5827.8888886699997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6007.7222223299996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6315.0555556700001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6050.6111111700002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5827.8888886699997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6007.7222223299996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6315.0555556700001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6050.6111111700002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6814.4444443299999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6668.1666665000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6315.0555556700001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6050.6111111700002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6814.4444443299999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6668.1666665000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6601.00000017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6685.1666666700003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6814.4444443299999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6668.1666665000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6601.00000017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6685.1666666700003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6828.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7288.5555558300002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="90700800"/>
+        <c:axId val="90829568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="90700800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90829568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90829568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +1932,1413 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93045504"/>
+        <c:crossAx val="90700800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$23:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4973.0555556700001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5085.0555556700001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5777.6666666700003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5827.8888886699997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6315.0555556700001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6814.4444443299999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$23:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$C$23:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5033.3333333299997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5469.2222223299996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5093.6666665000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6007.7222223299996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6050.6111111700002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6668.1666665000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$23:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$D$23:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5085.0555556700001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5777.6666666700003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5827.8888886699997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6315.0555556700001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6814.4444443299999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6601.00000017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.075</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$23:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$E$23:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5469.2222223299996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5093.6666665000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6007.7222223299996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6050.6111111700002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6668.1666665000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6685.1666666700003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$23:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$F$23:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5777.6666666700003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5827.8888886699997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6315.0555556700001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6814.4444443299999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6601.00000017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6828.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$23:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$G$23:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5093.6666665000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6007.7222223299996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6050.6111111700002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6668.1666665000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6685.1666666700003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7288.5555558300002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="90654976"/>
+        <c:axId val="90656768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="90654976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90656768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90656768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90654976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$43:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15521.055555000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15696.333333799999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15876.8888888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16271.6111105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16838.0000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17154.277775499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$44:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15876.8888888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16271.6111105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16838.0000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17154.277775499999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17536.166666199999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17695.111110500002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$45:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16838.0000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17154.277775499999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17536.166666199999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17695.111110500002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18023.666666199999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18016.444445500001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17536.166666199999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17695.111110500002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18023.666666199999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18016.444445500001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18397.722222199998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18941.444445000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$47:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18023.666666199999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18016.444445500001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18397.722222199998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18941.444445000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18956.611110000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19817.777778299998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$48:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18397.722222199998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18941.444445000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18956.611110000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19817.777778299998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19639.555554999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="117962624"/>
+        <c:axId val="117964160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="117962624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117964160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117964160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117962624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$43:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$B$43:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15521.055555000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15876.8888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16838.0000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17536.166666199999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18023.666666199999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18397.722222199998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$43:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$C$43:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15696.333333799999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16271.6111105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17154.277775499999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17695.111110500002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18016.444445500001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18941.444445000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$43:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$D$43:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15876.8888888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16838.0000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17536.166666199999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18023.666666199999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18397.722222199998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18956.611110000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.075</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$43:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$E$43:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16271.6111105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17154.277775499999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17695.111110500002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18016.444445500001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18941.444445000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19817.777778299998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$F$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$43:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$F$43:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16838.0000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17536.166666199999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18023.666666199999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18397.722222199998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18956.611110000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19639.555554999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$G$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$A$43:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RoutingTrafficSent_SUM_LARP!$G$43:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17154.277775499999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17695.111110500002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18016.444445500001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18941.444445000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19817.777778299998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="81814656"/>
+        <c:axId val="91950080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="81814656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91950080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91950080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81814656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,16 +3361,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -932,6 +3384,156 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1225,10 +3827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T16:T17"/>
+      <selection activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1344,372 +3946,697 @@
       </c>
     </row>
     <row r="2" spans="1:36">
-      <c r="A2">
-        <v>3495.5444444</v>
-      </c>
       <c r="B2">
-        <v>3560.5999999700002</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3612.3777777300002</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="D2">
-        <v>3654.1111111</v>
+        <v>1.05</v>
       </c>
       <c r="E2">
-        <v>3712.9111111299999</v>
+        <v>1.075</v>
       </c>
       <c r="F2">
-        <v>3731.3888889300001</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2">
+        <v>1.125</v>
       </c>
     </row>
     <row r="3" spans="1:36">
       <c r="A3">
-        <v>4973.0555556700001</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>5085.0555556700001</v>
+        <v>3255.2777778300001</v>
       </c>
       <c r="C3">
-        <v>5777.6666666700003</v>
+        <v>3332.0555555000001</v>
       </c>
       <c r="D3">
-        <v>5827.8888886699997</v>
+        <v>3434.1666663300002</v>
       </c>
       <c r="E3">
-        <v>6315.0555556700001</v>
+        <v>3546.0555555000001</v>
       </c>
       <c r="F3">
-        <v>6814.4444443299999</v>
+        <v>3535.6666666699998</v>
       </c>
       <c r="G3">
-        <v>5033.3333333299997</v>
-      </c>
-      <c r="H3">
-        <v>5469.2222223299996</v>
-      </c>
-      <c r="I3">
-        <v>5093.6666665000002</v>
-      </c>
-      <c r="J3">
-        <v>6007.7222223299996</v>
-      </c>
-      <c r="K3">
-        <v>6050.6111111700002</v>
-      </c>
-      <c r="L3">
-        <v>6668.1666665000002</v>
-      </c>
-      <c r="M3">
-        <v>5085.0555556700001</v>
-      </c>
-      <c r="N3">
-        <v>5777.6666666700003</v>
-      </c>
-      <c r="O3">
-        <v>5827.8888886699997</v>
-      </c>
-      <c r="P3">
-        <v>6315.0555556700001</v>
-      </c>
-      <c r="Q3">
-        <v>6814.4444443299999</v>
-      </c>
-      <c r="R3">
-        <v>6601.00000017</v>
-      </c>
-      <c r="S3">
-        <v>5469.2222223299996</v>
-      </c>
-      <c r="T3">
-        <v>5093.6666665000002</v>
-      </c>
-      <c r="U3">
-        <v>6007.7222223299996</v>
-      </c>
-      <c r="V3">
-        <v>6050.6111111700002</v>
-      </c>
-      <c r="W3">
-        <v>6668.1666665000002</v>
-      </c>
-      <c r="X3">
-        <v>6685.1666666700003</v>
-      </c>
-      <c r="Y3">
-        <v>5777.6666666700003</v>
-      </c>
-      <c r="Z3">
-        <v>5827.8888886699997</v>
-      </c>
-      <c r="AA3">
-        <v>6315.0555556700001</v>
-      </c>
-      <c r="AB3">
-        <v>6814.4444443299999</v>
-      </c>
-      <c r="AC3">
-        <v>6601.00000017</v>
-      </c>
-      <c r="AD3">
-        <v>6828.5</v>
-      </c>
-      <c r="AE3">
-        <v>5093.6666665000002</v>
-      </c>
-      <c r="AF3">
-        <v>6007.7222223299996</v>
-      </c>
-      <c r="AG3">
-        <v>6050.6111111700002</v>
-      </c>
-      <c r="AH3">
-        <v>6668.1666665000002</v>
-      </c>
-      <c r="AI3">
-        <v>6685.1666666700003</v>
-      </c>
-      <c r="AJ3">
-        <v>7288.5555558300002</v>
+        <v>3614.3333331700001</v>
       </c>
     </row>
     <row r="4" spans="1:36">
       <c r="A4">
-        <v>5595.7444444700004</v>
+        <v>0.05</v>
       </c>
       <c r="B4">
-        <v>5530.9111111299999</v>
+        <v>3434.1666663300002</v>
       </c>
       <c r="C4">
-        <v>5964.0222222000002</v>
+        <v>3546.0555555000001</v>
       </c>
       <c r="D4">
-        <v>5857.8777777699997</v>
+        <v>3535.6666666699998</v>
       </c>
       <c r="E4">
-        <v>6267.2111111000004</v>
+        <v>3614.3333331700001</v>
       </c>
       <c r="F4">
-        <v>6101.0666666300003</v>
+        <v>3580.3333333300002</v>
+      </c>
+      <c r="G4">
+        <v>3660.6666668299999</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="A5">
-        <v>15521.055555000001</v>
+        <v>0.1</v>
       </c>
       <c r="B5">
-        <v>20650.944443299999</v>
+        <v>3535.6666666699998</v>
       </c>
       <c r="C5">
-        <v>21892.3888883</v>
+        <v>3614.3333331700001</v>
       </c>
       <c r="D5">
-        <v>22461.833334999999</v>
+        <v>3580.3333333300002</v>
       </c>
       <c r="E5">
-        <v>22869.277776700001</v>
+        <v>3660.6666668299999</v>
       </c>
       <c r="F5">
-        <v>22907.666666699999</v>
+        <v>3672.2777778300001</v>
       </c>
       <c r="G5">
-        <v>15696.333333799999</v>
-      </c>
-      <c r="H5">
-        <v>21004.833334999999</v>
-      </c>
-      <c r="I5">
-        <v>22057.333334999999</v>
-      </c>
-      <c r="J5">
-        <v>22531.888889999998</v>
-      </c>
-      <c r="K5">
-        <v>22938.3333317</v>
-      </c>
-      <c r="L5">
-        <v>22891</v>
-      </c>
-      <c r="M5">
-        <v>15876.8888888</v>
-      </c>
-      <c r="N5">
-        <v>21015.611110000002</v>
-      </c>
-      <c r="O5">
-        <v>22186</v>
-      </c>
-      <c r="P5">
-        <v>22822.6111117</v>
-      </c>
-      <c r="Q5">
-        <v>22997.777776700001</v>
-      </c>
-      <c r="R5">
-        <v>22996</v>
-      </c>
-      <c r="S5">
-        <v>16271.6111105</v>
-      </c>
-      <c r="T5">
-        <v>20933.944445000001</v>
-      </c>
-      <c r="U5">
-        <v>22088.5</v>
-      </c>
-      <c r="V5">
-        <v>22586.333334999999</v>
-      </c>
-      <c r="W5">
-        <v>22831.3888883</v>
-      </c>
-      <c r="X5">
-        <v>22890.722221700002</v>
-      </c>
-      <c r="Y5">
-        <v>16838.0000005</v>
-      </c>
-      <c r="Z5">
-        <v>21321.8888883</v>
-      </c>
-      <c r="AA5">
-        <v>21997.555554999999</v>
-      </c>
-      <c r="AB5">
-        <v>23070.833333300001</v>
-      </c>
-      <c r="AC5">
-        <v>22517.3333317</v>
-      </c>
-      <c r="AD5">
-        <v>22798.166665000001</v>
-      </c>
-      <c r="AE5">
-        <v>17154.277775499999</v>
-      </c>
-      <c r="AF5">
-        <v>21080.666666699999</v>
-      </c>
-      <c r="AG5">
-        <v>22263.888889999998</v>
-      </c>
-      <c r="AH5">
-        <v>22436.111113300001</v>
-      </c>
-      <c r="AI5">
-        <v>22705.3888883</v>
-      </c>
-      <c r="AJ5">
-        <v>22649.222221700002</v>
+        <v>3649.8888888299998</v>
       </c>
     </row>
     <row r="6" spans="1:36">
       <c r="A6">
-        <v>20679.0999997</v>
+        <v>0.15</v>
       </c>
       <c r="B6">
-        <v>20845.744445100001</v>
+        <v>3580.3333333300002</v>
       </c>
       <c r="C6">
-        <v>20979.777777399999</v>
+        <v>3660.6666668299999</v>
       </c>
       <c r="D6">
-        <v>20942.355555800001</v>
+        <v>3672.2777778300001</v>
       </c>
       <c r="E6">
-        <v>21149.1222218</v>
+        <v>3649.8888888299998</v>
       </c>
       <c r="F6">
-        <v>21128.066666800001</v>
+        <v>3839.4444444999999</v>
+      </c>
+      <c r="G6">
+        <v>3799.6111111700002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
+        <v>3672.2777778300001</v>
+      </c>
+      <c r="C7">
+        <v>3649.8888888299998</v>
+      </c>
+      <c r="D7">
+        <v>3839.4444444999999</v>
+      </c>
+      <c r="E7">
+        <v>3799.6111111700002</v>
+      </c>
+      <c r="F7">
+        <v>3936.8333333300002</v>
+      </c>
+      <c r="G7">
+        <v>3932.4444446699999</v>
       </c>
     </row>
     <row r="8" spans="1:36">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
       <c r="B8">
+        <v>3839.4444444999999</v>
+      </c>
+      <c r="C8">
+        <v>3799.6111111700002</v>
+      </c>
+      <c r="D8">
+        <v>3936.8333333300002</v>
+      </c>
+      <c r="E8">
+        <v>3932.4444446699999</v>
+      </c>
+      <c r="F8">
+        <v>3912.7222221699999</v>
+      </c>
+      <c r="G8">
+        <v>3965.9444443299999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
+      <c r="A21">
+        <v>4973.0555556700001</v>
+      </c>
+      <c r="B21">
+        <v>5085.0555556700001</v>
+      </c>
+      <c r="C21">
+        <v>5777.6666666700003</v>
+      </c>
+      <c r="D21">
+        <v>5827.8888886699997</v>
+      </c>
+      <c r="E21">
+        <v>6315.0555556700001</v>
+      </c>
+      <c r="F21">
+        <v>6814.4444443299999</v>
+      </c>
+      <c r="G21">
+        <v>5033.3333333299997</v>
+      </c>
+      <c r="H21">
+        <v>5469.2222223299996</v>
+      </c>
+      <c r="I21">
+        <v>5093.6666665000002</v>
+      </c>
+      <c r="J21">
+        <v>6007.7222223299996</v>
+      </c>
+      <c r="K21">
+        <v>6050.6111111700002</v>
+      </c>
+      <c r="L21">
+        <v>6668.1666665000002</v>
+      </c>
+      <c r="M21">
+        <v>5085.0555556700001</v>
+      </c>
+      <c r="N21">
+        <v>5777.6666666700003</v>
+      </c>
+      <c r="O21">
+        <v>5827.8888886699997</v>
+      </c>
+      <c r="P21">
+        <v>6315.0555556700001</v>
+      </c>
+      <c r="Q21">
+        <v>6814.4444443299999</v>
+      </c>
+      <c r="R21">
+        <v>6601.00000017</v>
+      </c>
+      <c r="S21">
+        <v>5469.2222223299996</v>
+      </c>
+      <c r="T21">
+        <v>5093.6666665000002</v>
+      </c>
+      <c r="U21">
+        <v>6007.7222223299996</v>
+      </c>
+      <c r="V21">
+        <v>6050.6111111700002</v>
+      </c>
+      <c r="W21">
+        <v>6668.1666665000002</v>
+      </c>
+      <c r="X21">
+        <v>6685.1666666700003</v>
+      </c>
+      <c r="Y21">
+        <v>5777.6666666700003</v>
+      </c>
+      <c r="Z21">
+        <v>5827.8888886699997</v>
+      </c>
+      <c r="AA21">
+        <v>6315.0555556700001</v>
+      </c>
+      <c r="AB21">
+        <v>6814.4444443299999</v>
+      </c>
+      <c r="AC21">
+        <v>6601.00000017</v>
+      </c>
+      <c r="AD21">
+        <v>6828.5</v>
+      </c>
+      <c r="AE21">
+        <v>5093.6666665000002</v>
+      </c>
+      <c r="AF21">
+        <v>6007.7222223299996</v>
+      </c>
+      <c r="AG21">
+        <v>6050.6111111700002</v>
+      </c>
+      <c r="AH21">
+        <v>6668.1666665000002</v>
+      </c>
+      <c r="AI21">
+        <v>6685.1666666700003</v>
+      </c>
+      <c r="AJ21">
+        <v>7288.5555558300002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D22">
+        <v>1.05</v>
+      </c>
+      <c r="E22">
+        <v>1.075</v>
+      </c>
+      <c r="F22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G22">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="A23">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="B23">
+        <v>4973.0555556700001</v>
+      </c>
+      <c r="C23">
+        <v>5033.3333333299997</v>
+      </c>
+      <c r="D23">
+        <v>5085.0555556700001</v>
+      </c>
+      <c r="E23">
+        <v>5469.2222223299996</v>
+      </c>
+      <c r="F23">
+        <v>5777.6666666700003</v>
+      </c>
+      <c r="G23">
+        <v>5093.6666665000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24">
         <v>0.05</v>
       </c>
-      <c r="D8">
+      <c r="B24">
+        <v>5085.0555556700001</v>
+      </c>
+      <c r="C24">
+        <v>5469.2222223299996</v>
+      </c>
+      <c r="D24">
+        <v>5777.6666666700003</v>
+      </c>
+      <c r="E24">
+        <v>5093.6666665000002</v>
+      </c>
+      <c r="F24">
+        <v>5827.8888886699997</v>
+      </c>
+      <c r="G24">
+        <v>6007.7222223299996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25">
         <v>0.1</v>
       </c>
-      <c r="E8">
+      <c r="B25">
+        <v>5777.6666666700003</v>
+      </c>
+      <c r="C25">
+        <v>5093.6666665000002</v>
+      </c>
+      <c r="D25">
+        <v>5827.8888886699997</v>
+      </c>
+      <c r="E25">
+        <v>6007.7222223299996</v>
+      </c>
+      <c r="F25">
+        <v>6315.0555556700001</v>
+      </c>
+      <c r="G25">
+        <v>6050.6111111700002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
+      <c r="A26">
         <v>0.15</v>
       </c>
-      <c r="F8">
+      <c r="B26">
+        <v>5827.8888886699997</v>
+      </c>
+      <c r="C26">
+        <v>6007.7222223299996</v>
+      </c>
+      <c r="D26">
+        <v>6315.0555556700001</v>
+      </c>
+      <c r="E26">
+        <v>6050.6111111700002</v>
+      </c>
+      <c r="F26">
+        <v>6814.4444443299999</v>
+      </c>
+      <c r="G26">
+        <v>6668.1666665000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
+      <c r="A27">
         <v>0.2</v>
       </c>
-      <c r="G8">
+      <c r="B27">
+        <v>6315.0555556700001</v>
+      </c>
+      <c r="C27">
+        <v>6050.6111111700002</v>
+      </c>
+      <c r="D27">
+        <v>6814.4444443299999</v>
+      </c>
+      <c r="E27">
+        <v>6668.1666665000002</v>
+      </c>
+      <c r="F27">
+        <v>6601.00000017</v>
+      </c>
+      <c r="G27">
+        <v>6685.1666666700003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
+      <c r="A28">
         <v>0.25</v>
       </c>
+      <c r="B28">
+        <v>6814.4444443299999</v>
+      </c>
+      <c r="C28">
+        <v>6668.1666665000002</v>
+      </c>
+      <c r="D28">
+        <v>6601.00000017</v>
+      </c>
+      <c r="E28">
+        <v>6685.1666666700003</v>
+      </c>
+      <c r="F28">
+        <v>6828.5</v>
+      </c>
+      <c r="G28">
+        <v>7288.5555558300002</v>
+      </c>
     </row>
-    <row r="9" spans="1:36">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>3495.5444444</v>
-      </c>
-      <c r="C9">
-        <v>3560.5999999700002</v>
-      </c>
-      <c r="D9">
-        <v>3612.3777777300002</v>
-      </c>
-      <c r="E9">
-        <v>3654.1111111</v>
-      </c>
-      <c r="F9">
-        <v>3712.9111111299999</v>
-      </c>
-      <c r="G9">
-        <v>3731.3888889300001</v>
+    <row r="41" spans="1:36">
+      <c r="A41">
+        <v>15521.055555000001</v>
+      </c>
+      <c r="B41">
+        <v>15876.8888888</v>
+      </c>
+      <c r="C41">
+        <v>16838.0000005</v>
+      </c>
+      <c r="D41">
+        <v>17536.166666199999</v>
+      </c>
+      <c r="E41">
+        <v>18023.666666199999</v>
+      </c>
+      <c r="F41">
+        <v>18397.722222199998</v>
+      </c>
+      <c r="G41">
+        <v>15696.333333799999</v>
+      </c>
+      <c r="H41">
+        <v>16271.6111105</v>
+      </c>
+      <c r="I41">
+        <v>17154.277775499999</v>
+      </c>
+      <c r="J41">
+        <v>17695.111110500002</v>
+      </c>
+      <c r="K41">
+        <v>18016.444445500001</v>
+      </c>
+      <c r="L41">
+        <v>18941.444445000001</v>
+      </c>
+      <c r="M41">
+        <v>15876.8888888</v>
+      </c>
+      <c r="N41">
+        <v>16838.0000005</v>
+      </c>
+      <c r="O41">
+        <v>17536.166666199999</v>
+      </c>
+      <c r="P41">
+        <v>18023.666666199999</v>
+      </c>
+      <c r="Q41">
+        <v>18397.722222199998</v>
+      </c>
+      <c r="R41">
+        <v>18956.611110000002</v>
+      </c>
+      <c r="S41">
+        <v>16271.6111105</v>
+      </c>
+      <c r="T41">
+        <v>17154.277775499999</v>
+      </c>
+      <c r="U41">
+        <v>17695.111110500002</v>
+      </c>
+      <c r="V41">
+        <v>18016.444445500001</v>
+      </c>
+      <c r="W41">
+        <v>18941.444445000001</v>
+      </c>
+      <c r="X41">
+        <v>19817.777778299998</v>
+      </c>
+      <c r="Y41">
+        <v>16838.0000005</v>
+      </c>
+      <c r="Z41">
+        <v>17536.166666199999</v>
+      </c>
+      <c r="AA41">
+        <v>18023.666666199999</v>
+      </c>
+      <c r="AB41">
+        <v>18397.722222199998</v>
+      </c>
+      <c r="AC41">
+        <v>18956.611110000002</v>
+      </c>
+      <c r="AD41">
+        <v>19639.555554999999</v>
+      </c>
+      <c r="AE41">
+        <v>17154.277775499999</v>
+      </c>
+      <c r="AF41">
+        <v>17695.111110500002</v>
+      </c>
+      <c r="AG41">
+        <v>18016.444445500001</v>
+      </c>
+      <c r="AH41">
+        <v>18941.444445000001</v>
+      </c>
+      <c r="AI41">
+        <v>19817.777778299998</v>
+      </c>
+      <c r="AJ41">
+        <v>19835</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>5595.7444444700004</v>
-      </c>
-      <c r="C10">
-        <v>5530.9111111299999</v>
-      </c>
-      <c r="D10">
-        <v>5964.0222222000002</v>
-      </c>
-      <c r="E10">
-        <v>5857.8777777699997</v>
-      </c>
-      <c r="F10">
-        <v>6267.2111111000004</v>
-      </c>
-      <c r="G10">
-        <v>6101.0666666300003</v>
+    <row r="42" spans="1:36">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D42">
+        <v>1.05</v>
+      </c>
+      <c r="E42">
+        <v>1.075</v>
+      </c>
+      <c r="F42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G42">
+        <v>1.125</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>20679.0999997</v>
-      </c>
-      <c r="C11">
-        <v>20845.744445100001</v>
-      </c>
-      <c r="D11">
-        <v>20979.777777399999</v>
-      </c>
-      <c r="E11">
-        <v>20942.355555800001</v>
-      </c>
-      <c r="F11">
-        <v>21149.1222218</v>
-      </c>
-      <c r="G11">
-        <v>21128.066666800001</v>
+    <row r="43" spans="1:36">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>15521.055555000001</v>
+      </c>
+      <c r="C43">
+        <v>15696.333333799999</v>
+      </c>
+      <c r="D43">
+        <v>15876.8888888</v>
+      </c>
+      <c r="E43">
+        <v>16271.6111105</v>
+      </c>
+      <c r="F43">
+        <v>16838.0000005</v>
+      </c>
+      <c r="G43">
+        <v>17154.277775499999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36">
+      <c r="A44">
+        <v>0.05</v>
+      </c>
+      <c r="B44">
+        <v>15876.8888888</v>
+      </c>
+      <c r="C44">
+        <v>16271.6111105</v>
+      </c>
+      <c r="D44">
+        <v>16838.0000005</v>
+      </c>
+      <c r="E44">
+        <v>17154.277775499999</v>
+      </c>
+      <c r="F44">
+        <v>17536.166666199999</v>
+      </c>
+      <c r="G44">
+        <v>17695.111110500002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36">
+      <c r="A45">
+        <v>0.1</v>
+      </c>
+      <c r="B45">
+        <v>16838.0000005</v>
+      </c>
+      <c r="C45">
+        <v>17154.277775499999</v>
+      </c>
+      <c r="D45">
+        <v>17536.166666199999</v>
+      </c>
+      <c r="E45">
+        <v>17695.111110500002</v>
+      </c>
+      <c r="F45">
+        <v>18023.666666199999</v>
+      </c>
+      <c r="G45">
+        <v>18016.444445500001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36">
+      <c r="A46">
+        <v>0.15</v>
+      </c>
+      <c r="B46">
+        <v>17536.166666199999</v>
+      </c>
+      <c r="C46">
+        <v>17695.111110500002</v>
+      </c>
+      <c r="D46">
+        <v>18023.666666199999</v>
+      </c>
+      <c r="E46">
+        <v>18016.444445500001</v>
+      </c>
+      <c r="F46">
+        <v>18397.722222199998</v>
+      </c>
+      <c r="G46">
+        <v>18941.444445000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36">
+      <c r="A47">
+        <v>0.2</v>
+      </c>
+      <c r="B47">
+        <v>18023.666666199999</v>
+      </c>
+      <c r="C47">
+        <v>18016.444445500001</v>
+      </c>
+      <c r="D47">
+        <v>18397.722222199998</v>
+      </c>
+      <c r="E47">
+        <v>18941.444445000001</v>
+      </c>
+      <c r="F47">
+        <v>18956.611110000002</v>
+      </c>
+      <c r="G47">
+        <v>19817.777778299998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36">
+      <c r="A48">
+        <v>0.25</v>
+      </c>
+      <c r="B48">
+        <v>18397.722222199998</v>
+      </c>
+      <c r="C48">
+        <v>18941.444445000001</v>
+      </c>
+      <c r="D48">
+        <v>18956.611110000002</v>
+      </c>
+      <c r="E48">
+        <v>19817.777778299998</v>
+      </c>
+      <c r="F48">
+        <v>19639.555554999999</v>
+      </c>
+      <c r="G48">
+        <v>19835</v>
       </c>
     </row>
   </sheetData>
